--- a/biology/Botanique/Prestoea/Prestoea.xlsx
+++ b/biology/Botanique/Prestoea/Prestoea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prestoea est un genre de palmiers, de la famille des Arecaceae. Il comprend dix espèces natives des Caraïbes, de l'Amérique centrale et de l'Amérique du Sud. Son aire de répartition va du Costa Rica et des Grandes Antilles au nord, jusqu'au Brésil et à la Bolivie au sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Euterpeae
@@ -544,7 +558,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prestoea acuminata
 Prestoea montana
